--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11370"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="いろいろなデータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +66,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,6 +149,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,16 +360,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -370,7 +377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -385,16 +392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>5</v>
       </c>
@@ -402,7 +409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>7</v>
       </c>
@@ -417,12 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -425,14 +425,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -56,8 +56,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,24 +428,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="b">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="b">
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41034</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,11 +69,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,11 +467,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41034</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -13,19 +13,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>あいうえお</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,8 +56,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,11 +457,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41034</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,7 +444,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,11 +470,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41034</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/spec/test_data/Book1.xlsx
+++ b/Excel/spec/test_data/Book1.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,10 +455,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
